--- a/2021_Diabetes_Care_Kaddis_et_al_GRS/data/genetic_vs_self_stated_v2.xlsx
+++ b/2021_Diabetes_Care_Kaddis_et_al_GRS/data/genetic_vs_self_stated_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Manuscripts\GRS_review\admix_diabetes_care\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Manuscripts\2021_06_11_Diab_Care_GRS\submission\GITHUB\2021_Diabetes_Care_Kaddis_et_al_GRS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -381,7 +381,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H1" sqref="H1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,10 +414,10 @@
       </c>
       <c r="C2">
         <f>D2/E2*100</f>
-        <v>89.272030651340998</v>
+        <v>89.65517241379311</v>
       </c>
       <c r="D2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E2">
         <f>SUM(D2:D4)</f>
@@ -448,10 +448,10 @@
       </c>
       <c r="C4">
         <f>D4/E2*100</f>
-        <v>5.3639846743295019</v>
+        <v>4.980842911877394</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
